--- a/data_copy_small.xlsx
+++ b/data_copy_small.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Иванов Михаил Сергеевич</t>
   </si>
@@ -86,6 +86,21 @@
   </si>
   <si>
     <t>tmplt1.pptx</t>
+  </si>
+  <si>
+    <t>gg</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Сертификат</t>
+  </si>
+  <si>
+    <t>Диплом 1 степени</t>
+  </si>
+  <si>
+    <t>Диплом 2 степени</t>
   </si>
 </sst>
 </file>
@@ -130,7 +145,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -419,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +450,7 @@
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -450,16 +466,24 @@
       <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -475,16 +499,23 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="I2" t="s">
         <v>18</v>
       </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -500,16 +531,23 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="I3" t="s">
         <v>18</v>
       </c>
+      <c r="K3" s="2">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -525,21 +563,33 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
       <c r="I4" t="s">
         <v>19</v>
       </c>
+      <c r="K4" s="2">
+        <v>3</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1"/>
